--- a/predict/predictData/predict_2013.xlsx
+++ b/predict/predictData/predict_2013.xlsx
@@ -1,37 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouchenghan/python/TEJPredict/predict/predictData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDBC76D-B580-DE4D-AAA8-6ECBE2F008A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>預期 稅後淨利成長率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +76,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,491 +403,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>預期 稅後淨利成長率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>13.45343017578125</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>63.12762451171875</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-24.72442626953125</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>856.5690307617188</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>856.56903076171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>283.5350952148438</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>283.53509521484381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-5892.14208984375</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>-269.6260681152344</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>-269.62606811523438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13.45599365234375</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>181.2415161132812</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>181.24151611328119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-1945.677734375</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>116.7409057617188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>116.74090576171881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>276.7341918945312</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>276.73419189453119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-1.4091796875</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>-190.8159790039062</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15">
+        <v>-190.81597900390619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>13.45599365234375</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>602.9769897460938</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>602.97698974609375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-41.48516845703125</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-2380.6865234375</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>-175.3355102539062</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>-175.33551025390619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>43.13226318359375</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-64982.9921875</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>275.9594116210938</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23">
+        <v>275.95941162109381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>412.8063354492188</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24">
+        <v>412.80633544921881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>160.4020385742188</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="B25">
+        <v>160.40203857421881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>-693.6076049804688</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="B26">
+        <v>-693.60760498046875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-78.45941162109375</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>47.23797607421875</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>478.8457641601562</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="B29">
+        <v>478.84576416015619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-11.90435791015625</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>-623.1016235351562</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="B31">
+        <v>-623.10162353515625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>945.6203002929688</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="B32">
+        <v>945.62030029296875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>-209.4426879882812</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="B33">
+        <v>-209.44268798828119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-24.72442626953125</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2383.134521484375</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>214.1073608398438</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="B36">
+        <v>214.10736083984381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-454.3084716796875</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>270.7299194335938</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="B38">
+        <v>270.72991943359381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>61.6474609375</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-71.49371337890625</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>263.6062622070312</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="B41">
+        <v>263.60626220703119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>13.45574951171875</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-75.18682861328125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>505.8932495117188</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="B44">
+        <v>505.89324951171881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>133.7285766601562</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="B45">
+        <v>133.72857666015619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-17.56939697265625</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-2036.55224609375</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.56939697265625</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-62.73553466796875</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>-157.5991821289062</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="B50">
+        <v>-157.59918212890619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>54.0799560546875</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>134.5945434570312</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="B52">
+        <v>134.59454345703119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-1016.390197753906</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-1166.784423828125</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>61.31732177734375</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-17.56939697265625</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-18.33636474609375</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>23.44000244140625</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>-251.9898071289062</v>
+      <c r="B59">
+        <v>-251.98980712890619</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>